--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879654.7361460754</v>
+        <v>876624.881703376</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>6.876045741711437</v>
@@ -859,11 +859,11 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,11 +984,11 @@
         <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.583133036911</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09783323005805</v>
+        <v>146.9311922907017</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.10332478271065</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>96.16730000003608</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>83.37776779375078</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>182.3531069658549</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.4496242018399</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>10.54245985025182</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4578655062308</v>
       </c>
       <c r="H11" t="n">
-        <v>289.8572566545767</v>
+        <v>289.8572566545768</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.69396144712562</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.61754868334009</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.8874223451531</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9580631471242</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7512821067483</v>
       </c>
       <c r="H12" t="n">
-        <v>87.19991092803163</v>
+        <v>87.19991092803166</v>
       </c>
       <c r="I12" t="n">
-        <v>10.27218178408313</v>
+        <v>10.27218178408323</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>38.04183180044376</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.81773656594</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9050684066822</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.57649272446415</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.1429031891687</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6599156784288</v>
       </c>
       <c r="U13" t="n">
         <v>286.2004888405353</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>84.45855727731939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>213.4000178408373</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.6920487814951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.6584215897767</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.4198923921885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.82891891787528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>182.2777079560311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>263.3663026263085</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>38.61213096654807</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5196562849264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.019807611472247</v>
+        <v>114.5006452705935</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695541</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.752258470135</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.0417503712924</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465693</v>
@@ -3202,10 +3202,10 @@
         <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016447</v>
@@ -3250,7 +3250,7 @@
         <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>154.4892550148481</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520949</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V35" t="n">
         <v>327.752258470135</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>27.0291980517587</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>8.579726596856652</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272884</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695541</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
         <v>327.752258470135</v>
@@ -3566,7 +3566,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560537</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182125</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060177</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>160.6789846282019</v>
       </c>
       <c r="V40" t="n">
         <v>252.1376433238281</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V41" t="n">
         <v>327.752258470135</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465693</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
         <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>16.09765778288421</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>184.8404164569124</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890373</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>68.07731664460306</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>221.6488161050621</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4331,22 +4331,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.728814080766526</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>15.53609936506085</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>22.34338464935517</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>22.34338464935517</v>
       </c>
       <c r="P2" t="n">
-        <v>27.50418296684575</v>
+        <v>22.34338464935517</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F3" t="n">
         <v>7.495584408540386</v>
@@ -4410,19 +4410,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="N3" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J4" t="n">
         <v>7.495584408540386</v>
@@ -4492,13 +4492,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>2.214854686289198</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>9.02213997058352</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>15.82942525487784</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
         <v>22.63671053917217</v>
@@ -4507,7 +4507,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
         <v>20.55868221764227</v>
@@ -4519,19 +4519,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="5">
@@ -4547,16 +4547,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
         <v>0.5500836593369149</v>
@@ -4565,31 +4565,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.0132124648648</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>12.82049774915912</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>19.62778303345345</v>
       </c>
       <c r="M5" t="n">
-        <v>7.357368943631237</v>
+        <v>19.62778303345345</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>19.62778303345345</v>
       </c>
       <c r="O5" t="n">
-        <v>20.97193951221988</v>
+        <v>19.62778303345345</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
         <v>20.55868221764227</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C6" t="n">
         <v>13.6131814684388</v>
@@ -4632,7 +4632,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G6" t="n">
         <v>0.5500836593369149</v>
@@ -4644,22 +4644,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K6" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K6" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="L6" t="n">
-        <v>20.97193951221988</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4680,16 +4680,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E7" t="n">
         <v>14.44108515774386</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I7" t="n">
         <v>7.495584408540386</v>
@@ -4729,13 +4729,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>20.69689768255142</v>
@@ -4747,28 +4747,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.5974673148102</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="C8" t="n">
-        <v>224.5974673148102</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="D8" t="n">
-        <v>224.5974673148102</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="E8" t="n">
-        <v>224.5974673148102</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F8" t="n">
-        <v>217.6519665656068</v>
+        <v>163.4173927214891</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897906</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S8" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T8" t="n">
-        <v>388.822854220781</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U8" t="n">
-        <v>388.822854220781</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="V8" t="n">
-        <v>388.822854220781</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="W8" t="n">
-        <v>388.822854220781</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X8" t="n">
-        <v>388.822854220781</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="Y8" t="n">
-        <v>388.822854220781</v>
+        <v>549.2024635036621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8624079336487</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C9" t="n">
-        <v>116.8624079336487</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D9" t="n">
-        <v>116.8624079336487</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E9" t="n">
-        <v>116.8624079336487</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F9" t="n">
-        <v>116.8624079336487</v>
+        <v>35.30843564271029</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843287</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389251</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T9" t="n">
-        <v>571.6362168389251</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U9" t="n">
-        <v>571.6362168389251</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V9" t="n">
-        <v>474.4975299702018</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W9" t="n">
-        <v>474.4975299702018</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X9" t="n">
-        <v>285.0777449537168</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y9" t="n">
-        <v>285.0777449537168</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.6908704103906</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="C10" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E10" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F10" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330561</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M10" t="n">
-        <v>465.2530182692154</v>
+        <v>295.5529562639638</v>
       </c>
       <c r="N10" t="n">
-        <v>633.0454302264761</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608027</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846282</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846282</v>
+        <v>528.3415208084241</v>
       </c>
       <c r="T10" t="n">
-        <v>557.3057129681432</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="U10" t="n">
-        <v>557.3057129681432</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="V10" t="n">
-        <v>373.1106554268756</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="W10" t="n">
-        <v>373.1106554268756</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="X10" t="n">
-        <v>373.1106554268756</v>
+        <v>338.9217357919393</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.6908704103906</v>
+        <v>338.9217357919393</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.215381810056</v>
+        <v>1599.743674339786</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.252864869645</v>
+        <v>1230.781157399374</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.987166262894</v>
+        <v>1230.781157399374</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.19891366465</v>
+        <v>1220.132208055686</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2130088750423</v>
+        <v>809.1463032660783</v>
       </c>
       <c r="G11" t="n">
-        <v>370.6091043232941</v>
+        <v>394.54239871433</v>
       </c>
       <c r="H11" t="n">
-        <v>77.82399659139847</v>
+        <v>101.7572909824343</v>
       </c>
       <c r="I11" t="n">
-        <v>77.82399659139847</v>
+        <v>77.82399659139833</v>
       </c>
       <c r="J11" t="n">
-        <v>305.6789822190572</v>
+        <v>305.6789822190567</v>
       </c>
       <c r="K11" t="n">
-        <v>697.9130586091519</v>
+        <v>697.9130586091508</v>
       </c>
       <c r="L11" t="n">
-        <v>1221.415875938568</v>
+        <v>1221.415875938566</v>
       </c>
       <c r="M11" t="n">
-        <v>1835.583065855738</v>
+        <v>1835.583065855736</v>
       </c>
       <c r="N11" t="n">
-        <v>2464.30193137663</v>
+        <v>2464.301931376626</v>
       </c>
       <c r="O11" t="n">
-        <v>3044.648066472521</v>
+        <v>3044.648066472516</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.45906513554</v>
+        <v>3505.459065135534</v>
       </c>
       <c r="Q11" t="n">
-        <v>3803.336187589877</v>
+        <v>3803.33618758987</v>
       </c>
       <c r="R11" t="n">
-        <v>3891.199829569924</v>
+        <v>3891.199829569916</v>
       </c>
       <c r="S11" t="n">
-        <v>3791.586144031196</v>
+        <v>3891.199829569916</v>
       </c>
       <c r="T11" t="n">
-        <v>3587.659454793668</v>
+        <v>3687.273140332388</v>
       </c>
       <c r="U11" t="n">
-        <v>3587.659454793668</v>
+        <v>3433.780147254484</v>
       </c>
       <c r="V11" t="n">
-        <v>3587.659454793668</v>
+        <v>3102.717259910914</v>
       </c>
       <c r="W11" t="n">
-        <v>3234.890799523554</v>
+        <v>2749.948604640799</v>
       </c>
       <c r="X11" t="n">
-        <v>2861.425041262474</v>
+        <v>2376.482846379719</v>
       </c>
       <c r="Y11" t="n">
-        <v>2471.285709286662</v>
+        <v>1986.343514403908</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2806558965649</v>
       </c>
       <c r="H12" t="n">
-        <v>88.19993778744204</v>
+        <v>88.199937787442</v>
       </c>
       <c r="I12" t="n">
-        <v>77.82399659139847</v>
+        <v>77.82399659139833</v>
       </c>
       <c r="J12" t="n">
-        <v>77.82399659139847</v>
+        <v>194.7150181113183</v>
       </c>
       <c r="K12" t="n">
-        <v>77.82399659139847</v>
+        <v>472.655216741767</v>
       </c>
       <c r="L12" t="n">
-        <v>497.871434756097</v>
+        <v>892.7026549064648</v>
       </c>
       <c r="M12" t="n">
-        <v>1007.403850908863</v>
+        <v>1402.23507105923</v>
       </c>
       <c r="N12" t="n">
-        <v>1544.830718871917</v>
+        <v>1900.807948248463</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.25151299837</v>
+        <v>2370.228742374915</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.670018909819</v>
+        <v>2370.228742374915</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.234351786095</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.521077156007</v>
+        <v>410.7152826775988</v>
       </c>
       <c r="C13" t="n">
-        <v>834.5848942281006</v>
+        <v>410.7152826775988</v>
       </c>
       <c r="D13" t="n">
-        <v>684.4682548157648</v>
+        <v>260.598643265263</v>
       </c>
       <c r="E13" t="n">
-        <v>536.5551612333717</v>
+        <v>222.172550537542</v>
       </c>
       <c r="F13" t="n">
-        <v>389.6652137354613</v>
+        <v>222.172550537542</v>
       </c>
       <c r="G13" t="n">
-        <v>222.1725505375421</v>
+        <v>222.172550537542</v>
       </c>
       <c r="H13" t="n">
-        <v>77.82399659139847</v>
+        <v>77.82399659139833</v>
       </c>
       <c r="I13" t="n">
-        <v>77.82399659139847</v>
+        <v>77.82399659139833</v>
       </c>
       <c r="J13" t="n">
-        <v>137.5101910526553</v>
+        <v>137.5101910526546</v>
       </c>
       <c r="K13" t="n">
-        <v>365.4297801405347</v>
+        <v>365.4297801405339</v>
       </c>
       <c r="L13" t="n">
-        <v>712.6148188079085</v>
+        <v>712.6148188079071</v>
       </c>
       <c r="M13" t="n">
-        <v>1089.061886242734</v>
+        <v>1089.061886242732</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.992500236379</v>
+        <v>1461.992500236377</v>
       </c>
       <c r="O13" t="n">
-        <v>1790.437987314009</v>
+        <v>1790.437987314006</v>
       </c>
       <c r="P13" t="n">
-        <v>2047.959159991275</v>
+        <v>2047.959159991272</v>
       </c>
       <c r="Q13" t="n">
-        <v>2142.818391429107</v>
+        <v>2142.818391429104</v>
       </c>
       <c r="R13" t="n">
-        <v>2142.818391429107</v>
+        <v>2062.438095747827</v>
       </c>
       <c r="S13" t="n">
-        <v>2142.818391429107</v>
+        <v>1874.414961213313</v>
       </c>
       <c r="T13" t="n">
-        <v>2142.818391429107</v>
+        <v>1653.546359517931</v>
       </c>
       <c r="U13" t="n">
-        <v>1853.72698855988</v>
+        <v>1364.454956648704</v>
       </c>
       <c r="V13" t="n">
-        <v>1599.042500353993</v>
+        <v>1109.770468442817</v>
       </c>
       <c r="W13" t="n">
-        <v>1309.625330317032</v>
+        <v>820.3532984058559</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.313656299538</v>
+        <v>592.3637475078385</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.521077156007</v>
+        <v>592.3637475078385</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5434,22 +5434,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1620.60209139437</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078137</v>
+        <v>991.7436897307823</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799068</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675711</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380535</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,37 +5744,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,10 +5783,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797746</v>
@@ -5920,16 +5920,16 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>718.5507239167108</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.943648562283</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.868421906481</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V25" t="n">
-        <v>1469.183933700594</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.766763663633</v>
+        <v>1167.332853958258</v>
       </c>
       <c r="X25" t="n">
-        <v>951.7772127656159</v>
+        <v>939.3433030602409</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7772127656159</v>
+        <v>718.5507239167108</v>
       </c>
     </row>
     <row r="26">
@@ -6242,7 +6242,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>446.9048623224649</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>300.0149148245546</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>132.8188155394346</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6421,13 +6421,13 @@
         <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>747.3584617859345</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>916.2946447138414</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511914</v>
+        <v>874.8686257536385</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232844</v>
+        <v>705.9324428257315</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232844</v>
+        <v>555.8158034133957</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408912</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429807</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038337</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910808</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052218</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015257</v>
+        <v>1433.359422267659</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117239</v>
+        <v>1277.309669727409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973709</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.28515749258</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154056</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C37" t="n">
-        <v>709.4207169874986</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D37" t="n">
-        <v>559.3040775751628</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="E37" t="n">
-        <v>411.3909839927695</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="F37" t="n">
-        <v>411.3909839927695</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G37" t="n">
-        <v>244.1948847076494</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H37" t="n">
-        <v>102.4830535498473</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138396</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154056</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7175,22 +7175,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7214,10 +7214,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327629</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048558</v>
+        <v>538.7363435406114</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925199</v>
+        <v>388.6197041282756</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101266</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122161</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797189</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.3616186032</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947398</v>
+        <v>1882.204779583154</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741511</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806533</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630028</v>
+        <v>889.3209912987585</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851653</v>
+        <v>866.4638174991055</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851653</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728294</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="E43" t="n">
-        <v>398.6787020904362</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F43" t="n">
-        <v>251.7887545925257</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G43" t="n">
-        <v>251.7887545925257</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0769234347236</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855603</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956953</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058935</v>
+        <v>1268.904861472876</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154052</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7649,40 +7649,40 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7737,7 +7737,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835329</v>
+        <v>929.7309773356204</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2311.152413524982</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2091.550948547923</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>2091.550948547923</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1836.866460342036</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1547.449290305075</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1319.459739407058</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.228921741679</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>214.9341548935987</v>
       </c>
       <c r="M2" t="n">
-        <v>212.2231445822437</v>
+        <v>212.5009646122118</v>
       </c>
       <c r="N2" t="n">
         <v>211.167778269899</v>
       </c>
       <c r="O2" t="n">
-        <v>213.252896592586</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>217.8634090628659</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,22 +8058,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>132.2757235927434</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>129.0745055979979</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6260055667107</v>
+        <v>118.3481855367425</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>131.5496644292654</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>126.4659658995391</v>
       </c>
       <c r="Q3" t="n">
         <v>137.2421710355686</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>127.177120590255</v>
+        <v>132.371579436055</v>
       </c>
       <c r="M4" t="n">
         <v>135.9022952863677</v>
@@ -8149,7 +8149,7 @@
         <v>124.8974446055506</v>
       </c>
       <c r="O4" t="n">
-        <v>136.4061815433745</v>
+        <v>131.2117226975745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>163.5783032472985</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>193.9104447356927</v>
+        <v>200.7864904774035</v>
       </c>
       <c r="L5" t="n">
-        <v>210.1645922435683</v>
+        <v>210.1645922435675</v>
       </c>
       <c r="M5" t="n">
-        <v>194.2083467411767</v>
+        <v>194.2083467411759</v>
       </c>
       <c r="N5" t="n">
-        <v>199.5664740678642</v>
+        <v>192.6904283261518</v>
       </c>
       <c r="O5" t="n">
-        <v>202.2981140088605</v>
+        <v>195.4220682671482</v>
       </c>
       <c r="P5" t="n">
-        <v>208.2359355455406</v>
+        <v>202.7176236207642</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.0808626733481</v>
+        <v>206.956908415059</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.3100887514233</v>
+        <v>116.4340430097116</v>
       </c>
       <c r="K6" t="n">
-        <v>126.9361031879099</v>
+        <v>126.9361031879095</v>
       </c>
       <c r="L6" t="n">
-        <v>121.5211636982001</v>
+        <v>114.6451179564881</v>
       </c>
       <c r="M6" t="n">
-        <v>114.2330531011521</v>
+        <v>120.8312788128947</v>
       </c>
       <c r="N6" t="n">
-        <v>109.3005010338416</v>
+        <v>102.7022753220976</v>
       </c>
       <c r="O6" t="n">
-        <v>116.3967549760434</v>
+        <v>123.2728007177542</v>
       </c>
       <c r="P6" t="n">
-        <v>112.9470073281458</v>
+        <v>119.8230530698567</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9255139889038</v>
+        <v>125.9255139889034</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>121.1595254211256</v>
+        <v>128.0355711628367</v>
       </c>
       <c r="M7" t="n">
-        <v>131.0527624855118</v>
+        <v>131.3305825154796</v>
       </c>
       <c r="N7" t="n">
-        <v>120.4344369460741</v>
+        <v>120.1566169161056</v>
       </c>
       <c r="O7" t="n">
-        <v>132.283871611126</v>
+        <v>125.4078258694142</v>
       </c>
       <c r="P7" t="n">
-        <v>133.438621941835</v>
+        <v>133.4386219418348</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8617,13 +8617,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>145.8220995101055</v>
+        <v>154.1946371899309</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.050623923745521e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-4.07158460348896e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.364106415615452e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.064098866026128e-12</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.500974792831613e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.220884898160204</v>
+        <v>8.2208848981602</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>222.2842174616407</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.38791022201</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.69396144712539</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.6175486833402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9580631471242</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>108.3921308461254</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.81773656594</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.0951371304225</v>
+        <v>90.09513713042257</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.57649272446403</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.1429031891687</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6599156784288</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>141.2510981117178</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>4.005432486450957</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.89260457059967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.58839950885114</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.16476095990626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>47.43691740069023</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>22.81817176293561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6825818796758</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.5956654067401</v>
+        <v>34.11482774761883</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.79022981064509</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>71.22040037418913</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664538</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.68610972170899</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516672</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
         <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610423</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>65.16817853568142</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016447</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>101.6825818796788</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>112.9489693570417</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>30.48882721876586</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888613.0930339899</v>
+        <v>888613.0930339888</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731679</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>976505.1911731676</v>
+        <v>976505.1911731678</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451210.2166014019</v>
+        <v>451210.216601402</v>
       </c>
       <c r="C2" t="n">
         <v>451213.0630845146</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
-        <v>403646.7515157131</v>
+        <v>403646.7515157132</v>
       </c>
       <c r="F2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="I2" t="n">
-        <v>443930.6298295033</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295037</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295035</v>
@@ -26366,16 +26366,16 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>14727.34781350988</v>
+        <v>14727.34781351103</v>
       </c>
       <c r="D3" t="n">
-        <v>481988.8505733412</v>
+        <v>481988.8505733399</v>
       </c>
       <c r="E3" t="n">
-        <v>762053.950733346</v>
+        <v>762053.9507333448</v>
       </c>
       <c r="F3" t="n">
-        <v>185974.1210310474</v>
+        <v>185974.1210310491</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45720.77308869559</v>
+        <v>45720.7730886956</v>
       </c>
       <c r="M3" t="n">
-        <v>195693.5141578402</v>
+        <v>195693.5141578397</v>
       </c>
       <c r="N3" t="n">
-        <v>48962.94771511432</v>
+        <v>48962.94771511485</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>406442.870506277</v>
       </c>
       <c r="C4" t="n">
-        <v>402944.4413284749</v>
+        <v>402944.4413284746</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
@@ -26430,34 +26430,34 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.25639174426</v>
+        <v>8727.256391744255</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744249</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.25639174416</v>
+        <v>8727.256391744208</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744158</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.25639174416</v>
+        <v>8727.2563917442</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744198</v>
+        <v>8727.256391744158</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744158</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>35161.7028139307</v>
+        <v>35161.70281393073</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>85418.76709574828</v>
+        <v>85418.76709574813</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26093.04415208612</v>
+        <v>-26094.69304674034</v>
       </c>
       <c r="C6" t="n">
-        <v>-1620.428871400894</v>
+        <v>-1622.064827496472</v>
       </c>
       <c r="D6" t="n">
-        <v>-359285.9001303659</v>
+        <v>-359285.9001303647</v>
       </c>
       <c r="E6" t="n">
-        <v>-452449.656617392</v>
+        <v>-452667.5030806161</v>
       </c>
       <c r="F6" t="n">
-        <v>148106.7225828046</v>
+        <v>148071.9846573672</v>
       </c>
       <c r="G6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884163</v>
       </c>
       <c r="H6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="I6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884163</v>
       </c>
       <c r="J6" t="n">
-        <v>332281.7675018078</v>
+        <v>332247.029576372</v>
       </c>
       <c r="K6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="L6" t="n">
-        <v>288360.0705251567</v>
+        <v>288325.3325997209</v>
       </c>
       <c r="M6" t="n">
-        <v>138387.3294560119</v>
+        <v>138352.5915305768</v>
       </c>
       <c r="N6" t="n">
-        <v>285117.8958987379</v>
+        <v>285083.1579733016</v>
       </c>
       <c r="O6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884165</v>
       </c>
       <c r="P6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884165</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>51.19446022177289</v>
+        <v>51.19446022177415</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1205.161912214928</v>
+        <v>1205.161912214927</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26793,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>972.7999573924809</v>
+        <v>972.7999573924791</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.286285363935998e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>16.17319950264756</v>
+        <v>16.17319950264883</v>
       </c>
       <c r="D3" t="n">
-        <v>497.2754806911319</v>
+        <v>497.2754806911304</v>
       </c>
       <c r="E3" t="n">
-        <v>656.6919713020234</v>
+        <v>656.6919713020222</v>
       </c>
       <c r="F3" t="n">
-        <v>162.8135881267458</v>
+        <v>162.8135881267472</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>180.6495414246087</v>
+        <v>180.6495414246085</v>
       </c>
       <c r="E4" t="n">
-        <v>785.2743702261607</v>
+        <v>785.2743702261591</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9083307071675</v>
+        <v>199.9083307071693</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>180.6495414246089</v>
       </c>
       <c r="M4" t="n">
-        <v>785.274370226161</v>
+        <v>785.2743702261589</v>
       </c>
       <c r="N4" t="n">
-        <v>199.9083307071671</v>
+        <v>199.9083307071693</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>180.6495414246087</v>
+        <v>180.6495414246085</v>
       </c>
       <c r="M4" t="n">
-        <v>785.2743702261607</v>
+        <v>785.2743702261591</v>
       </c>
       <c r="N4" t="n">
-        <v>199.9083307071675</v>
+        <v>199.9083307071693</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>89.42442281108013</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>192.9850552304604</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>219.0603805004824</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,10 +27555,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>147.4948680927315</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>82.01821069278695</v>
       </c>
       <c r="K4" t="n">
         <v>8.05620490400057</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.99778714139502</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>167.577752922068</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27591,10 +27591,10 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>280.2591635530223</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>331.3106613651764</v>
+        <v>337.3670824544757</v>
       </c>
       <c r="I5" t="n">
-        <v>202.5415200118134</v>
+        <v>202.5415200118132</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>130.0650560711732</v>
+        <v>136.9411018128843</v>
       </c>
       <c r="S5" t="n">
-        <v>204.3302454161804</v>
+        <v>197.4541996744689</v>
       </c>
       <c r="T5" t="n">
         <v>222.1949299676658</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2334007770732</v>
+        <v>130.3573550353618</v>
       </c>
       <c r="H6" t="n">
         <v>111.17195177038</v>
       </c>
       <c r="I6" t="n">
-        <v>85.60534499536868</v>
+        <v>85.6053449953686</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.32095888000713</v>
+        <v>93.32095888000696</v>
       </c>
       <c r="S6" t="n">
         <v>169.6378075279962</v>
@@ -27752,10 +27752,10 @@
         <v>225.9341375818868</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>140.3775415572698</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.8986614793703</v>
@@ -27792,13 +27792,13 @@
         <v>161.4063826369987</v>
       </c>
       <c r="I7" t="n">
-        <v>152.6742245270349</v>
+        <v>145.7981787853234</v>
       </c>
       <c r="J7" t="n">
-        <v>86.83230606511987</v>
+        <v>86.8323060651197</v>
       </c>
       <c r="K7" t="n">
-        <v>4.66778704098687</v>
+        <v>4.667787040986605</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.55563401649525</v>
+        <v>71.55563401649505</v>
       </c>
       <c r="R7" t="n">
-        <v>167.0860227426752</v>
+        <v>173.1424438319745</v>
       </c>
       <c r="S7" t="n">
-        <v>222.4077491804946</v>
+        <v>222.4077491804945</v>
       </c>
       <c r="T7" t="n">
-        <v>227.55114030854</v>
+        <v>227.5511403085399</v>
       </c>
       <c r="U7" t="n">
         <v>286.3139938358133</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.1507086265696</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>266.1666409393563</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988665</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871044</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>116.0604645830647</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V9" t="n">
-        <v>136.6332871493892</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715735</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>123.4024880017455</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632377997</v>
+        <v>36.1940863237802</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>69.78453635797308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577467</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-4.091732653158391e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2058068752634084</v>
+        <v>0.2058068752634135</v>
       </c>
       <c r="H5" t="n">
-        <v>2.107719661291382</v>
+        <v>2.107719661291434</v>
       </c>
       <c r="I5" t="n">
-        <v>7.934369558592561</v>
+        <v>7.934369558592757</v>
       </c>
       <c r="J5" t="n">
-        <v>17.46760127938773</v>
+        <v>17.46760127938816</v>
       </c>
       <c r="K5" t="n">
-        <v>26.17940630928781</v>
+        <v>26.17940630928846</v>
       </c>
       <c r="L5" t="n">
-        <v>32.47786846813035</v>
+        <v>32.47786846813116</v>
       </c>
       <c r="M5" t="n">
-        <v>36.13788648609599</v>
+        <v>36.13788648609688</v>
       </c>
       <c r="N5" t="n">
-        <v>36.72263527043815</v>
+        <v>36.72263527043906</v>
       </c>
       <c r="O5" t="n">
-        <v>34.67614315453763</v>
+        <v>34.67614315453849</v>
       </c>
       <c r="P5" t="n">
-        <v>29.59528592147223</v>
+        <v>29.59528592147296</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.22482720110141</v>
+        <v>22.22482720110196</v>
       </c>
       <c r="R5" t="n">
-        <v>12.92801612826509</v>
+        <v>12.92801612826541</v>
       </c>
       <c r="S5" t="n">
-        <v>4.689824170064925</v>
+        <v>4.68982417006504</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9009195964655708</v>
+        <v>0.9009195964655932</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01646455002107267</v>
+        <v>0.01646455002107308</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1101163861373983</v>
+        <v>0.110116386137401</v>
       </c>
       <c r="H6" t="n">
-        <v>1.063492466116452</v>
+        <v>1.063492466116478</v>
       </c>
       <c r="I6" t="n">
-        <v>3.791287856046389</v>
+        <v>3.791287856046483</v>
       </c>
       <c r="J6" t="n">
-        <v>10.40358365695481</v>
+        <v>10.40358365695507</v>
       </c>
       <c r="K6" t="n">
-        <v>17.78138152816049</v>
+        <v>17.78138152816094</v>
       </c>
       <c r="L6" t="n">
-        <v>23.90926182338554</v>
+        <v>23.90926182338613</v>
       </c>
       <c r="M6" t="n">
-        <v>27.90098082086622</v>
+        <v>27.90098082086691</v>
       </c>
       <c r="N6" t="n">
-        <v>28.639436761235</v>
+        <v>28.63943676123571</v>
       </c>
       <c r="O6" t="n">
-        <v>26.19948946840107</v>
+        <v>26.19948946840172</v>
       </c>
       <c r="P6" t="n">
-        <v>21.02740008618442</v>
+        <v>21.02740008618494</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.05626009711772</v>
+        <v>14.05626009711807</v>
       </c>
       <c r="R6" t="n">
-        <v>6.836875272636012</v>
+        <v>6.836875272636181</v>
       </c>
       <c r="S6" t="n">
-        <v>2.045363575841585</v>
+        <v>2.045363575841636</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4438463107906535</v>
+        <v>0.4438463107906644</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007244499087986732</v>
+        <v>0.007244499087986911</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0923178790884429</v>
+        <v>0.09231787908844517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8207898704408838</v>
+        <v>0.8207898704409041</v>
       </c>
       <c r="I7" t="n">
-        <v>2.776250400223356</v>
+        <v>2.776250400223425</v>
       </c>
       <c r="J7" t="n">
-        <v>6.526874051552912</v>
+        <v>6.526874051553074</v>
       </c>
       <c r="K7" t="n">
-        <v>10.72565904318455</v>
+        <v>10.72565904318481</v>
       </c>
       <c r="L7" t="n">
-        <v>13.72515086011269</v>
+        <v>13.72515086011303</v>
       </c>
       <c r="M7" t="n">
-        <v>14.47124717383655</v>
+        <v>14.47124717383691</v>
       </c>
       <c r="N7" t="n">
-        <v>14.12715326087055</v>
+        <v>14.1271532608709</v>
       </c>
       <c r="O7" t="n">
-        <v>13.04871258242828</v>
+        <v>13.0487125824286</v>
       </c>
       <c r="P7" t="n">
-        <v>11.16542784902403</v>
+        <v>11.16542784902431</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.730363493487705</v>
+        <v>7.730363493487896</v>
       </c>
       <c r="R7" t="n">
-        <v>4.150947545194895</v>
+        <v>4.150947545194998</v>
       </c>
       <c r="S7" t="n">
-        <v>1.608848856477681</v>
+        <v>1.608848856477721</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3944491197415286</v>
+        <v>0.3944491197415384</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005035520677551437</v>
+        <v>0.005035520677551561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31607,34 +31607,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31695,25 +31695,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.84487200890423</v>
+        <v>4.844872008904225</v>
       </c>
       <c r="H11" t="n">
-        <v>49.61754546119046</v>
+        <v>49.6175454611904</v>
       </c>
       <c r="I11" t="n">
-        <v>186.7819281232805</v>
+        <v>186.7819281232803</v>
       </c>
       <c r="J11" t="n">
-        <v>411.2024556657358</v>
+        <v>411.2024556657353</v>
       </c>
       <c r="K11" t="n">
-        <v>616.2858878026519</v>
+        <v>616.2858878026512</v>
       </c>
       <c r="L11" t="n">
-        <v>764.557139545155</v>
+        <v>764.5571395451541</v>
       </c>
       <c r="M11" t="n">
-        <v>850.7171321335055</v>
+        <v>850.7171321335046</v>
       </c>
       <c r="N11" t="n">
-        <v>864.4826247288048</v>
+        <v>864.4826247288038</v>
       </c>
       <c r="O11" t="n">
-        <v>816.3064286902633</v>
+        <v>816.3064286902624</v>
       </c>
       <c r="P11" t="n">
-        <v>696.69865097044</v>
+        <v>696.6986509704392</v>
       </c>
       <c r="Q11" t="n">
-        <v>523.1916721515571</v>
+        <v>523.1916721515564</v>
       </c>
       <c r="R11" t="n">
-        <v>304.3366913293306</v>
+        <v>304.3366913293303</v>
       </c>
       <c r="S11" t="n">
-        <v>110.4025209029053</v>
+        <v>110.4025209029051</v>
       </c>
       <c r="T11" t="n">
-        <v>21.20842721897828</v>
+        <v>21.20842721897825</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3875897607123384</v>
+        <v>0.3875897607123379</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.592235056462298</v>
+        <v>2.592235056462295</v>
       </c>
       <c r="H12" t="n">
-        <v>25.03553330846484</v>
+        <v>25.03553330846481</v>
       </c>
       <c r="I12" t="n">
-        <v>89.25019821591687</v>
+        <v>89.25019821591677</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.9093655756768</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>418.5891143586506</v>
       </c>
       <c r="L12" t="n">
-        <v>562.8447213603777</v>
+        <v>562.844721360377</v>
       </c>
       <c r="M12" t="n">
-        <v>656.8132421571357</v>
+        <v>656.8132421571351</v>
       </c>
       <c r="N12" t="n">
-        <v>674.1971342682361</v>
+        <v>634.9506789411441</v>
       </c>
       <c r="O12" t="n">
-        <v>616.7586627539926</v>
+        <v>616.7586627539919</v>
       </c>
       <c r="P12" t="n">
-        <v>495.0032012642787</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.4406961832702</v>
+        <v>330.8965310670117</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.14962922858696</v>
+        <v>48.1496292285869</v>
       </c>
       <c r="T12" t="n">
-        <v>10.44852638986338</v>
+        <v>10.44852638986337</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1705417800304144</v>
+        <v>0.1705417800304143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.173242792518723</v>
+        <v>2.17324279251872</v>
       </c>
       <c r="H13" t="n">
-        <v>19.32210410075739</v>
+        <v>19.32210410075736</v>
       </c>
       <c r="I13" t="n">
-        <v>65.35533779683578</v>
+        <v>65.35533779683571</v>
       </c>
       <c r="J13" t="n">
-        <v>153.6482654310737</v>
+        <v>153.6482654310735</v>
       </c>
       <c r="K13" t="n">
-        <v>252.491298985357</v>
+        <v>252.4912989853567</v>
       </c>
       <c r="L13" t="n">
-        <v>323.1019329895564</v>
+        <v>323.101932989556</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6656861036394</v>
+        <v>340.665686103639</v>
       </c>
       <c r="N13" t="n">
-        <v>332.5654175133426</v>
+        <v>332.5654175133422</v>
       </c>
       <c r="O13" t="n">
-        <v>307.177990346192</v>
+        <v>307.1779903461916</v>
       </c>
       <c r="P13" t="n">
-        <v>262.8438373788098</v>
+        <v>262.8438373788095</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.9794487444541</v>
+        <v>181.9794487444539</v>
       </c>
       <c r="R13" t="n">
-        <v>97.71689865270545</v>
+        <v>97.71689865270534</v>
       </c>
       <c r="S13" t="n">
-        <v>37.87369484780355</v>
+        <v>37.8736948478035</v>
       </c>
       <c r="T13" t="n">
-        <v>9.285673749852721</v>
+        <v>9.285673749852711</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1185405159555668</v>
+        <v>0.1185405159555667</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,19 +33494,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>397.4049812900381</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.385298118318473</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.681586895911397</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
@@ -34869,7 +34869,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911398</v>
       </c>
       <c r="P4" t="n">
         <v>4.9166388158319</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5.518311924775642</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.079913786967653</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>6.876045741711437</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663201</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4872848053138</v>
+        <v>177.8598224851392</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>230.1565511390495</v>
+        <v>230.156551139049</v>
       </c>
       <c r="K11" t="n">
-        <v>396.1960367576714</v>
+        <v>396.1960367576707</v>
       </c>
       <c r="L11" t="n">
-        <v>528.7907245751678</v>
+        <v>528.7907245751669</v>
       </c>
       <c r="M11" t="n">
-        <v>620.3708989062328</v>
+        <v>620.3708989062319</v>
       </c>
       <c r="N11" t="n">
-        <v>635.0695611322139</v>
+        <v>635.0695611322128</v>
       </c>
       <c r="O11" t="n">
-        <v>586.2082172685765</v>
+        <v>586.2082172685756</v>
       </c>
       <c r="P11" t="n">
-        <v>465.4656552151704</v>
+        <v>465.4656552151696</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.8859822771076</v>
+        <v>300.8859822771069</v>
       </c>
       <c r="R11" t="n">
-        <v>88.7511535151985</v>
+        <v>88.75115351519815</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.0717389090101</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>280.7476753842916</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2903415805035</v>
+        <v>424.2903415805028</v>
       </c>
       <c r="M12" t="n">
-        <v>514.6792082351174</v>
+        <v>514.6792082351167</v>
       </c>
       <c r="N12" t="n">
-        <v>542.8554221849029</v>
+        <v>503.6089668578108</v>
       </c>
       <c r="O12" t="n">
-        <v>474.1624183095481</v>
+        <v>474.1624183095474</v>
       </c>
       <c r="P12" t="n">
-        <v>361.0287938499485</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.4589220972487</v>
+        <v>190.9147569809901</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.28908531440092</v>
+        <v>60.28908531440075</v>
       </c>
       <c r="K13" t="n">
-        <v>230.2218071594741</v>
+        <v>230.2218071594739</v>
       </c>
       <c r="L13" t="n">
-        <v>350.6919582498725</v>
+        <v>350.6919582498721</v>
       </c>
       <c r="M13" t="n">
-        <v>380.2495630654799</v>
+        <v>380.2495630654795</v>
       </c>
       <c r="N13" t="n">
-        <v>376.6975898925712</v>
+        <v>376.6975898925708</v>
       </c>
       <c r="O13" t="n">
-        <v>331.7631182602316</v>
+        <v>331.7631182602313</v>
       </c>
       <c r="P13" t="n">
-        <v>260.1223966437033</v>
+        <v>260.122396643703</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.81740549275979</v>
+        <v>95.81740549275956</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>259.5635423156791</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,7 +37163,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295329</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295329</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
